--- a/peak_data_output.xlsx
+++ b/peak_data_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/jm_canaval_uniandes_edu_co/Documents/Laboratorio/Programa Lorentziana/Lorantzian_Ramman_ac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_7BB19C564161FC0E62355476585DCE3A87474115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F03B2D8B-82A6-4EA6-BAE8-E3C0A396E605}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_4065C5AF86687E0E62355476585DCE3A87474000" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087DFF1E-C32F-4D74-A832-EDF301513C7A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>File name</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Peak 0 x0</t>
+  </si>
+  <si>
+    <t>Peak 1 amplitude</t>
+  </si>
+  <si>
+    <t>Peak 1 gamma</t>
+  </si>
+  <si>
+    <t>Peak 1 x0</t>
   </si>
   <si>
     <t>.\Data\10L_532_600_50x_0_80 NIR_100_500_25%.txt</t>
@@ -580,19 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,1225 +616,1783 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>-3.6429705407168687E-2</v>
+        <v>0.42020959368974309</v>
       </c>
       <c r="D2">
-        <v>0.99366342932405427</v>
+        <v>0.63906255346666352</v>
       </c>
       <c r="E2">
-        <v>89.914393633916831</v>
+        <v>55.617009271231638</v>
       </c>
       <c r="F2">
-        <v>2699.84152224647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2692.9373157601749</v>
+      </c>
+      <c r="G2">
+        <v>-0.32052496133413882</v>
+      </c>
+      <c r="H2">
+        <v>92.641771142474568</v>
+      </c>
+      <c r="I2">
+        <v>2520.1752098260281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.1816809052303216</v>
+        <v>0.7664225575778626</v>
       </c>
       <c r="D3">
-        <v>0.80859793717538397</v>
+        <v>0.33805963346202023</v>
       </c>
       <c r="E3">
-        <v>136.47815752471831</v>
+        <v>-70.475294218585844</v>
       </c>
       <c r="F3">
-        <v>2709.3501865195271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2692.3510179540808</v>
+      </c>
+      <c r="G3">
+        <v>-0.35547783578664799</v>
+      </c>
+      <c r="H3">
+        <v>121.6856759922194</v>
+      </c>
+      <c r="I3">
+        <v>2506.981584958171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>8.0735366187344823E-2</v>
+        <v>171.71121357378311</v>
       </c>
       <c r="D4">
-        <v>0.90296462264806454</v>
+        <v>0.58560888134542599</v>
       </c>
       <c r="E4">
-        <v>124.09447460455689</v>
+        <v>-83.290939945364229</v>
       </c>
       <c r="F4">
-        <v>2706.313743976852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.22765597441</v>
+      </c>
+      <c r="G4">
+        <v>-171.61921205137881</v>
+      </c>
+      <c r="H4">
+        <v>13993.900812205889</v>
+      </c>
+      <c r="I4">
+        <v>2093.1128670120629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>-0.1264578487004874</v>
+        <v>0.41483284891484179</v>
       </c>
       <c r="D5">
-        <v>1.076001292909605</v>
+        <v>0.65750212846581446</v>
       </c>
       <c r="E5">
-        <v>-89.582702537662513</v>
+        <v>-50.086750016742037</v>
       </c>
       <c r="F5">
-        <v>2700.7464305087919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.573832221427</v>
+      </c>
+      <c r="G5">
+        <v>-0.38829824687398279</v>
+      </c>
+      <c r="H5">
+        <v>88.143142701987614</v>
+      </c>
+      <c r="I5">
+        <v>2519.3648642560738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>-0.53789364054658495</v>
+        <v>-1.014626193820233E-2</v>
       </c>
       <c r="D6">
-        <v>1.45751534047236</v>
+        <v>1.060470934997465</v>
       </c>
       <c r="E6">
-        <v>-74.666878090399209</v>
+        <v>-48.816144050998453</v>
       </c>
       <c r="F6">
-        <v>2695.3234980118982</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2691.038125212242</v>
+      </c>
+      <c r="G6">
+        <v>-0.41298102308158202</v>
+      </c>
+      <c r="H6">
+        <v>81.400376717927173</v>
+      </c>
+      <c r="I6">
+        <v>2518.152050782001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0.83216181734685568</v>
+        <v>0.82936028058259303</v>
       </c>
       <c r="D7">
-        <v>0.16219382263203991</v>
+        <v>0.16426890924581319</v>
       </c>
       <c r="E7">
-        <v>-152.65699228348899</v>
+        <v>161.66406508970971</v>
       </c>
       <c r="F7">
-        <v>2702.2728366059332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2700.8843490765389</v>
+      </c>
+      <c r="G7">
+        <v>-1.0000887639437709E-2</v>
+      </c>
+      <c r="H7">
+        <v>17.24306159492178</v>
+      </c>
+      <c r="I7">
+        <v>2565.9181603039128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.82408024390306622</v>
+        <v>0.80430836178355414</v>
       </c>
       <c r="D8">
-        <v>0.17085578190743539</v>
+        <v>4.32328252643314E-2</v>
       </c>
       <c r="E8">
-        <v>-87.125592021532412</v>
+        <v>-35.679559659140757</v>
       </c>
       <c r="F8">
-        <v>2702.1420991981199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2709.311708249274</v>
+      </c>
+      <c r="G8">
+        <v>0.15357514170029821</v>
+      </c>
+      <c r="H8">
+        <v>119.4409190365562</v>
+      </c>
+      <c r="I8">
+        <v>2698.7490593769958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.83990642525225101</v>
+        <v>0.84533899956499869</v>
       </c>
       <c r="D9">
-        <v>0.15132112806779999</v>
+        <v>0.14645216828687529</v>
       </c>
       <c r="E9">
-        <v>-73.593117058839439</v>
+        <v>-70.633088442999693</v>
       </c>
       <c r="F9">
-        <v>2699.4873373032369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2699.7720688595241</v>
+      </c>
+      <c r="G9">
+        <v>-9.5846872405124114E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.622229732535488</v>
+      </c>
+      <c r="I9">
+        <v>2541.8956003085282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>-0.30068048573236811</v>
+        <v>-0.27529620724969411</v>
       </c>
       <c r="D10">
-        <v>1.2945836827040771</v>
+        <v>1.274209278420271</v>
       </c>
       <c r="E10">
-        <v>-50.466919622602163</v>
+        <v>-49.169852840909741</v>
       </c>
       <c r="F10">
-        <v>2697.0032711643971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2696.9794410269478</v>
+      </c>
+      <c r="G10">
+        <v>-2.8852063907212781E-2</v>
+      </c>
+      <c r="H10">
+        <v>31.733427496788359</v>
+      </c>
+      <c r="I10">
+        <v>2532.151568204943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>-1.607308597954195</v>
+        <v>-1.585898930601281</v>
       </c>
       <c r="D11">
-        <v>2.6370614608820282</v>
+        <v>2.61974825115542</v>
       </c>
       <c r="E11">
-        <v>-51.833585932763</v>
+        <v>-51.214931773853479</v>
       </c>
       <c r="F11">
-        <v>2694.3118832147061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.324138467528</v>
+      </c>
+      <c r="G11">
+        <v>-8.8704514342777374E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.8608205809215903</v>
+      </c>
+      <c r="I11">
+        <v>2530.3479250400101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>0.85760836133792828</v>
+        <v>-153.0848564007255</v>
       </c>
       <c r="D12">
-        <v>0.14140938389365271</v>
+        <v>154.0808343823204</v>
       </c>
       <c r="E12">
-        <v>170.2526236354249</v>
+        <v>6409.9772271400534</v>
       </c>
       <c r="F12">
-        <v>2705.3530185145592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2706.7805124554661</v>
+      </c>
+      <c r="G12">
+        <v>7.2053358197551029E-2</v>
+      </c>
+      <c r="H12">
+        <v>31.169346614773509</v>
+      </c>
+      <c r="I12">
+        <v>2508.270002052559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.81039130784171609</v>
+        <v>171.30185447163791</v>
       </c>
       <c r="D13">
-        <v>0.1884872655568206</v>
+        <v>0.41982054222453558</v>
       </c>
       <c r="E13">
-        <v>-165.43663132710111</v>
+        <v>-212.66449537085651</v>
       </c>
       <c r="F13">
-        <v>2704.0343550331449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2692.1306964378768</v>
+      </c>
+      <c r="G13">
+        <v>-170.7249650759581</v>
+      </c>
+      <c r="H13">
+        <v>7826.7147828769976</v>
+      </c>
+      <c r="I13">
+        <v>2673.0305024985578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>0.82982148195973759</v>
+        <v>127.0023615774078</v>
       </c>
       <c r="D14">
-        <v>0.16632968790557651</v>
+        <v>0.28130880925693391</v>
       </c>
       <c r="E14">
-        <v>155.1530582077655</v>
+        <v>179.9679948672435</v>
       </c>
       <c r="F14">
-        <v>2706.9630379996088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2692.210002198769</v>
+      </c>
+      <c r="G14">
+        <v>-126.290911787903</v>
+      </c>
+      <c r="H14">
+        <v>7848.4974139476708</v>
+      </c>
+      <c r="I14">
+        <v>2661.053180357133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>0.73663647857671732</v>
+        <v>0.80659887888832971</v>
       </c>
       <c r="D15">
-        <v>0.25082257848971318</v>
+        <v>0.19392905276135719</v>
       </c>
       <c r="E15">
-        <v>-76.033240807048571</v>
+        <v>-54.76932243586846</v>
       </c>
       <c r="F15">
-        <v>2697.4847231177841</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2695.6228740716042</v>
+      </c>
+      <c r="G15">
+        <v>-5.3440398623896102E-2</v>
+      </c>
+      <c r="H15">
+        <v>62.030969989957889</v>
+      </c>
+      <c r="I15">
+        <v>2519.632088393143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>0.85692130550233736</v>
+        <v>0.87293867776674938</v>
       </c>
       <c r="D16">
-        <v>0.14093641936883289</v>
+        <v>0.12468099573376409</v>
       </c>
       <c r="E16">
-        <v>-141.26482697644829</v>
+        <v>-138.24501357160551</v>
       </c>
       <c r="F16">
-        <v>2701.7605089648182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2699.615910345768</v>
+      </c>
+      <c r="G16">
+        <v>-1.351346709954084E-2</v>
+      </c>
+      <c r="H16">
+        <v>30.182693956501179</v>
+      </c>
+      <c r="I16">
+        <v>2552.7374446414769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>-3.6084622727864231</v>
+        <v>-2.8716580890487431</v>
       </c>
       <c r="D17">
-        <v>4.5195316968467107</v>
+        <v>4.0660906682812312</v>
       </c>
       <c r="E17">
-        <v>-57.37418209231317</v>
+        <v>-48.990323256442892</v>
       </c>
       <c r="F17">
-        <v>2690.8326106036898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2688.735906326333</v>
+      </c>
+      <c r="G17">
+        <v>-0.68412073307265797</v>
+      </c>
+      <c r="H17">
+        <v>123.71574428205111</v>
+      </c>
+      <c r="I17">
+        <v>2499.009622828059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>1.2369131864698251</v>
+        <v>1.2335304118215471</v>
       </c>
       <c r="D18">
-        <v>-0.2429910712092393</v>
+        <v>-0.22978126023853079</v>
       </c>
       <c r="E18">
-        <v>44.399904185056307</v>
+        <v>42.444242011229051</v>
       </c>
       <c r="F18">
-        <v>2697.5396042698248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.1420314690508</v>
+      </c>
+      <c r="G18">
+        <v>-5.7544797605517617E-2</v>
+      </c>
+      <c r="H18">
+        <v>7.2253961831069544</v>
+      </c>
+      <c r="I18">
+        <v>2724.4939556780892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>-1.383745146021109</v>
+        <v>-1.265227372706321</v>
       </c>
       <c r="D19">
-        <v>2.396954576465292</v>
+        <v>2.3006664012713438</v>
       </c>
       <c r="E19">
-        <v>-55.717751077863717</v>
+        <v>-52.148240710333177</v>
       </c>
       <c r="F19">
-        <v>2693.5681784790108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.4945989846842</v>
+      </c>
+      <c r="G19">
+        <v>-0.13174442556307669</v>
+      </c>
+      <c r="H19">
+        <v>29.765778168641969</v>
+      </c>
+      <c r="I19">
+        <v>2523.157419167781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>-1.383745146021109</v>
+        <v>-1.265227372706321</v>
       </c>
       <c r="D20">
-        <v>2.396954576465292</v>
+        <v>2.3006664012713438</v>
       </c>
       <c r="E20">
-        <v>-55.717751077863717</v>
+        <v>-52.148240710333177</v>
       </c>
       <c r="F20">
-        <v>2693.5681784790108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.4945989846842</v>
+      </c>
+      <c r="G20">
+        <v>-0.13174442556307669</v>
+      </c>
+      <c r="H20">
+        <v>29.765778168641969</v>
+      </c>
+      <c r="I20">
+        <v>2523.157419167781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>9.2237880463663924</v>
+        <v>-189.72642336229569</v>
       </c>
       <c r="D21">
-        <v>-8.3345026093912278</v>
+        <v>45.571778168930813</v>
       </c>
       <c r="E21">
-        <v>47.583348192997313</v>
+        <v>79.029685689163955</v>
       </c>
       <c r="F21">
-        <v>2692.4069354321332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2796.9489684865021</v>
+      </c>
+      <c r="G21">
+        <v>194.7715811392782</v>
+      </c>
+      <c r="H21">
+        <v>487.69407203670983</v>
+      </c>
+      <c r="I21">
+        <v>2529.1034395339661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>1.9823296182345751</v>
+        <v>-1247.729409844573</v>
       </c>
       <c r="D22">
-        <v>-1.0240994182361089</v>
+        <v>5.265342889302687</v>
       </c>
       <c r="E22">
-        <v>41.549018796231202</v>
+        <v>62.143291987920193</v>
       </c>
       <c r="F22">
-        <v>2701.6282922897872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2795.461741268673</v>
+      </c>
+      <c r="G22">
+        <v>1249.3846473296351</v>
+      </c>
+      <c r="H22">
+        <v>3926.19883701756</v>
+      </c>
+      <c r="I22">
+        <v>2538.7178012832069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>0.40064749470587557</v>
+        <v>123.6581156141834</v>
       </c>
       <c r="D23">
-        <v>0.59161190500172356</v>
+        <v>0.1657640671413845</v>
       </c>
       <c r="E23">
-        <v>-270.33315455731457</v>
+        <v>-136.94620642161971</v>
       </c>
       <c r="F23">
-        <v>2784.4987182013551</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2691.7952203442369</v>
+      </c>
+      <c r="G23">
+        <v>-123.0375773901815</v>
+      </c>
+      <c r="H23">
+        <v>7997.3327475529713</v>
+      </c>
+      <c r="I23">
+        <v>2414.7141448752309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>0.49202496088473102</v>
+        <v>294.7438010452899</v>
       </c>
       <c r="D24">
-        <v>0.50392394721822253</v>
+        <v>0.42145908694201512</v>
       </c>
       <c r="E24">
-        <v>-272.29010006550351</v>
+        <v>207.8357463003137</v>
       </c>
       <c r="F24">
-        <v>2769.6664173736958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2688.1744995083941</v>
+      </c>
+      <c r="G24">
+        <v>-294.2485625077918</v>
+      </c>
+      <c r="H24">
+        <v>8505.0708505865932</v>
+      </c>
+      <c r="I24">
+        <v>2588.4267318918819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>0.45112121523094673</v>
+        <v>18.73582273936611</v>
       </c>
       <c r="D25">
-        <v>0.55718956471587999</v>
+        <v>0.1346429207580826</v>
       </c>
       <c r="E25">
-        <v>-203.94917769867669</v>
+        <v>-74.061651891016254</v>
       </c>
       <c r="F25">
-        <v>2743.305586121232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.719466245821</v>
+      </c>
+      <c r="G25">
+        <v>-18.96454481861355</v>
+      </c>
+      <c r="H25">
+        <v>8340.3835598375645</v>
+      </c>
+      <c r="I25">
+        <v>640.88743350048276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>0.504886545867968</v>
+        <v>198.18842723951519</v>
       </c>
       <c r="D26">
-        <v>0.48697165937601861</v>
+        <v>0.25073915280601949</v>
       </c>
       <c r="E26">
-        <v>-247.35906312954819</v>
+        <v>-168.36317011568701</v>
       </c>
       <c r="F26">
-        <v>2779.1639801849901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2695.3601681919108</v>
+      </c>
+      <c r="G26">
+        <v>-197.56882013868611</v>
+      </c>
+      <c r="H26">
+        <v>8215.2343170850636</v>
+      </c>
+      <c r="I26">
+        <v>2536.322403368456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>0.83957280900525411</v>
+        <v>-102.7942982127982</v>
       </c>
       <c r="D27">
-        <v>0.15692133357499191</v>
+        <v>103.7857766567728</v>
       </c>
       <c r="E27">
-        <v>-154.4524665715723</v>
+        <v>-4584.4391825947187</v>
       </c>
       <c r="F27">
-        <v>2705.8129591297161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2708.4230522434691</v>
+      </c>
+      <c r="G27">
+        <v>0.10381588318921341</v>
+      </c>
+      <c r="H27">
+        <v>34.930575428226533</v>
+      </c>
+      <c r="I27">
+        <v>2509.5995895799902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>0.84293871110792684</v>
+        <v>2638.295117242209</v>
       </c>
       <c r="D28">
-        <v>0.15700298518639499</v>
+        <v>55.087937084321702</v>
       </c>
       <c r="E28">
-        <v>-183.98766687883071</v>
+        <v>-919.20032441380863</v>
       </c>
       <c r="F28">
-        <v>2708.043110296951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.9858246706722</v>
+      </c>
+      <c r="G28">
+        <v>-2692.384520491903</v>
+      </c>
+      <c r="H28">
+        <v>6641.2926504178749</v>
+      </c>
+      <c r="I28">
+        <v>2690.109537136962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>0.797134950392689</v>
+        <v>3001.582021778961</v>
       </c>
       <c r="D29">
-        <v>0.20172686545924889</v>
+        <v>95.459401098966183</v>
       </c>
       <c r="E29">
-        <v>222.01512327335729</v>
+        <v>-1083.5548983307019</v>
       </c>
       <c r="F29">
-        <v>2713.3915502906302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2687.7172490593562</v>
+      </c>
+      <c r="G29">
+        <v>-3096.044899544303</v>
+      </c>
+      <c r="H29">
+        <v>6323.48523747538</v>
+      </c>
+      <c r="I29">
+        <v>2686.703778627209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>0.8538253336245929</v>
+        <v>0.89432655012995754</v>
       </c>
       <c r="D30">
-        <v>0.1357072593306036</v>
+        <v>0.1000973241801023</v>
       </c>
       <c r="E30">
-        <v>-93.93415655525618</v>
+        <v>-65.923205052343164</v>
       </c>
       <c r="F30">
-        <v>2704.621918043882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2705.718358277506</v>
+      </c>
+      <c r="G30">
+        <v>-2.736922662273315E-2</v>
+      </c>
+      <c r="H30">
+        <v>39.992420040696281</v>
+      </c>
+      <c r="I30">
+        <v>2522.2977626830689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>0.79177867582217099</v>
+        <v>0.77441588388480032</v>
       </c>
       <c r="D31">
-        <v>0.20555874595035031</v>
+        <v>0.22198665097625481</v>
       </c>
       <c r="E31">
-        <v>-215.196079560085</v>
+        <v>-256.14228599240232</v>
       </c>
       <c r="F31">
-        <v>2715.8669375904219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2713.3088292987368</v>
+      </c>
+      <c r="G31">
+        <v>-1.8215306346794729E-2</v>
+      </c>
+      <c r="H31">
+        <v>33.170993633254703</v>
+      </c>
+      <c r="I31">
+        <v>2556.6237087953882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C32">
-        <v>0.71242873626090675</v>
+        <v>32.812374682280797</v>
       </c>
       <c r="D32">
-        <v>0.28088766565766882</v>
+        <v>0.20779459725704361</v>
       </c>
       <c r="E32">
-        <v>-105.5561089076724</v>
+        <v>-75.660827530393462</v>
       </c>
       <c r="F32">
-        <v>2702.3545469643309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2689.9279398627</v>
+      </c>
+      <c r="G32">
+        <v>-32.073954326742097</v>
+      </c>
+      <c r="H32">
+        <v>8353.5965200341634</v>
+      </c>
+      <c r="I32">
+        <v>2357.2740383036421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <v>0.2540360315793771</v>
+        <v>173.6976922629654</v>
       </c>
       <c r="D33">
-        <v>0.73502453319721239</v>
+        <v>0.4634930645283124</v>
       </c>
       <c r="E33">
-        <v>-140.0040554702388</v>
+        <v>-95.742646252932374</v>
       </c>
       <c r="F33">
-        <v>2713.9034008375661</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.1214133316498</v>
+      </c>
+      <c r="G33">
+        <v>-173.32207105823099</v>
+      </c>
+      <c r="H33">
+        <v>10659.60933474832</v>
+      </c>
+      <c r="I33">
+        <v>2383.1487297580261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>0.30006907999030558</v>
+        <v>190.5138921959221</v>
       </c>
       <c r="D34">
-        <v>0.70131797119296291</v>
+        <v>0.49469636319412308</v>
       </c>
       <c r="E34">
-        <v>159.12099492480451</v>
+        <v>117.9824504656231</v>
       </c>
       <c r="F34">
-        <v>2715.954808424643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2691.1215962416441</v>
+      </c>
+      <c r="G34">
+        <v>-190.08771641300581</v>
+      </c>
+      <c r="H34">
+        <v>8352.1207567275724</v>
+      </c>
+      <c r="I34">
+        <v>2528.5728864915641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>0.30529099040770019</v>
+        <v>0.83685633922054159</v>
       </c>
       <c r="D35">
-        <v>0.69062647246582132</v>
+        <v>0.28336398923719708</v>
       </c>
       <c r="E35">
-        <v>144.43564256318979</v>
+        <v>78.806063617470855</v>
       </c>
       <c r="F35">
-        <v>2713.9731394103678</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2692.9913441747021</v>
+      </c>
+      <c r="G35">
+        <v>-0.33146407737006689</v>
+      </c>
+      <c r="H35">
+        <v>147.65302398701269</v>
+      </c>
+      <c r="I35">
+        <v>2503.53323254833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>0.29986672993214009</v>
+        <v>268.61272471633072</v>
       </c>
       <c r="D36">
-        <v>0.70165932068414827</v>
+        <v>0.43791623494902099</v>
       </c>
       <c r="E36">
-        <v>150.86523483783569</v>
+        <v>101.32479256588439</v>
       </c>
       <c r="F36">
-        <v>2714.5639771099131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2689.922724606909</v>
+      </c>
+      <c r="G36">
+        <v>-268.164120533095</v>
+      </c>
+      <c r="H36">
+        <v>11423.176389623361</v>
+      </c>
+      <c r="I36">
+        <v>2459.502789385233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C37">
-        <v>0.33319045745987452</v>
+        <v>270.02043480818361</v>
       </c>
       <c r="D37">
-        <v>0.6610538632859464</v>
+        <v>0.49302462789500973</v>
       </c>
       <c r="E37">
-        <v>150.5975960414452</v>
+        <v>113.2300991386908</v>
       </c>
       <c r="F37">
-        <v>2715.133346878632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.4473301270618</v>
+      </c>
+      <c r="G37">
+        <v>-269.58722594122167</v>
+      </c>
+      <c r="H37">
+        <v>9039.2531201274851</v>
+      </c>
+      <c r="I37">
+        <v>2555.4182155598892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>0.24513744947698909</v>
+        <v>42.067777379076723</v>
       </c>
       <c r="D38">
-        <v>0.74495717146285778</v>
+        <v>0.37485820638461892</v>
       </c>
       <c r="E38">
-        <v>152.76809349006831</v>
+        <v>89.194635663482799</v>
       </c>
       <c r="F38">
-        <v>2714.6602815377478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.5550388958309</v>
+      </c>
+      <c r="G38">
+        <v>-42.190250144349193</v>
+      </c>
+      <c r="H38">
+        <v>11075.228582153601</v>
+      </c>
+      <c r="I38">
+        <v>1216.078367547238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>0.36680108084189911</v>
+        <v>286.43631513977101</v>
       </c>
       <c r="D39">
-        <v>0.6348561596767881</v>
+        <v>0.52203543020886101</v>
       </c>
       <c r="E39">
-        <v>-172.89654077182479</v>
+        <v>-140.29590347828349</v>
       </c>
       <c r="F39">
-        <v>2724.2474942457879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.6678553166521</v>
+      </c>
+      <c r="G39">
+        <v>-286.01938251245213</v>
+      </c>
+      <c r="H39">
+        <v>8517.3841120352299</v>
+      </c>
+      <c r="I39">
+        <v>2582.8642202708738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>0.39912656623088849</v>
+        <v>191.03475900698459</v>
       </c>
       <c r="D40">
-        <v>0.60148488289294377</v>
+        <v>0.43765791756572148</v>
       </c>
       <c r="E40">
-        <v>-162.92117780242029</v>
+        <v>-128.9541190169856</v>
       </c>
       <c r="F40">
-        <v>2723.158091205788</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2699.2116011959838</v>
+      </c>
+      <c r="G40">
+        <v>-190.5447531009828</v>
+      </c>
+      <c r="H40">
+        <v>9500.1385919502736</v>
+      </c>
+      <c r="I40">
+        <v>2525.5775693877181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <v>0.36434369882183398</v>
+        <v>185.7718846660087</v>
       </c>
       <c r="D41">
-        <v>0.6360161664154611</v>
+        <v>0.42136267768741009</v>
       </c>
       <c r="E41">
-        <v>-164.63072391930791</v>
+        <v>-124.4804636988997</v>
       </c>
       <c r="F41">
-        <v>2726.2718543313681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2700.579528106683</v>
+      </c>
+      <c r="G41">
+        <v>-185.29323626634951</v>
+      </c>
+      <c r="H41">
+        <v>9854.5819041952072</v>
+      </c>
+      <c r="I41">
+        <v>2484.421640232968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C42">
-        <v>0.31644958080331959</v>
+        <v>262.46863523111062</v>
       </c>
       <c r="D42">
-        <v>0.6755703204197604</v>
+        <v>0.45623657279774948</v>
       </c>
       <c r="E42">
-        <v>-155.35573844070399</v>
+        <v>-114.62574776326839</v>
       </c>
       <c r="F42">
-        <v>2718.5136715855269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.849065004074</v>
+      </c>
+      <c r="G42">
+        <v>-262.02829421522603</v>
+      </c>
+      <c r="H42">
+        <v>11140.50371740606</v>
+      </c>
+      <c r="I42">
+        <v>2491.806341806423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C43">
-        <v>0.37467656865844018</v>
+        <v>1.378977603231766</v>
       </c>
       <c r="D43">
-        <v>0.60469641588260892</v>
+        <v>0.29667112573785309</v>
       </c>
       <c r="E43">
-        <v>-147.00988657565389</v>
+        <v>-86.634317446295796</v>
       </c>
       <c r="F43">
-        <v>2715.771327778697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2695.9416029911358</v>
+      </c>
+      <c r="G43">
+        <v>-180.96306104523001</v>
+      </c>
+      <c r="H43">
+        <v>120.5928705181871</v>
+      </c>
+      <c r="I43">
+        <v>756.12202548410926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C44">
-        <v>0.2493500123157131</v>
+        <v>130.21693156862321</v>
       </c>
       <c r="D44">
-        <v>0.7396693524999246</v>
+        <v>0.40085457082078518</v>
       </c>
       <c r="E44">
-        <v>-151.51386244693941</v>
+        <v>-95.445366197987752</v>
       </c>
       <c r="F44">
-        <v>2718.8329149156748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.2960289228508</v>
+      </c>
+      <c r="G44">
+        <v>-129.89595939125141</v>
+      </c>
+      <c r="H44">
+        <v>11454.660066593269</v>
+      </c>
+      <c r="I44">
+        <v>2180.959087738217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C45">
-        <v>0.40820434022452912</v>
+        <v>3.211726452211296</v>
       </c>
       <c r="D45">
-        <v>0.58238628926192348</v>
+        <v>0.30855761101460499</v>
       </c>
       <c r="E45">
-        <v>-133.46181274216889</v>
+        <v>-80.334494278552469</v>
       </c>
       <c r="F45">
-        <v>2716.838211872971</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2697.9405859559811</v>
+      </c>
+      <c r="G45">
+        <v>-24.960400931310009</v>
+      </c>
+      <c r="H45">
+        <v>2009.182989158443</v>
+      </c>
+      <c r="I45">
+        <v>-3285.7995103942758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C46">
-        <v>0.3140474397259933</v>
+        <v>0.78383779214022153</v>
       </c>
       <c r="D46">
-        <v>0.67570571998369677</v>
+        <v>0.28068345363756142</v>
       </c>
       <c r="E46">
-        <v>132.63505157392109</v>
+        <v>-66.928673104235799</v>
       </c>
       <c r="F46">
-        <v>2710.6250941737148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2697.527048409595</v>
+      </c>
+      <c r="G46">
+        <v>-0.28359381751980312</v>
+      </c>
+      <c r="H46">
+        <v>101.7288472373761</v>
+      </c>
+      <c r="I46">
+        <v>2512.629477375292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47">
-        <v>0.3515964777636893</v>
+        <v>1.327317069342536</v>
       </c>
       <c r="D47">
-        <v>0.63547108713360234</v>
+        <v>0.33328659447862852</v>
       </c>
       <c r="E47">
-        <v>-129.79543398941041</v>
+        <v>-74.336001101320477</v>
       </c>
       <c r="F47">
-        <v>2711.1795300011809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.966202809605</v>
+      </c>
+      <c r="G47">
+        <v>-145.35895849154409</v>
+      </c>
+      <c r="H47">
+        <v>117.3975256844052</v>
+      </c>
+      <c r="I47">
+        <v>965.69091220593509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C48">
-        <v>0.33669578902044278</v>
+        <v>110.8983666681977</v>
       </c>
       <c r="D48">
-        <v>0.65443895172521971</v>
+        <v>0.40440160001871961</v>
       </c>
       <c r="E48">
-        <v>-149.19393817592569</v>
+        <v>-104.2988670797845</v>
       </c>
       <c r="F48">
-        <v>2715.7418866084181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2695.1735086568542</v>
+      </c>
+      <c r="G48">
+        <v>-110.4725831549807</v>
+      </c>
+      <c r="H48">
+        <v>10730.93624679377</v>
+      </c>
+      <c r="I48">
+        <v>2291.0683394242269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>0.33138263717948441</v>
+        <v>202.60112495870641</v>
       </c>
       <c r="D49">
-        <v>0.66166885993638924</v>
+        <v>0.4258658790845975</v>
       </c>
       <c r="E49">
-        <v>-153.2143863585591</v>
+        <v>-108.44266300190711</v>
       </c>
       <c r="F49">
-        <v>2719.737400404711</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.5247755058872</v>
+      </c>
+      <c r="G49">
+        <v>-202.13945408452111</v>
+      </c>
+      <c r="H49">
+        <v>9715.365257144902</v>
+      </c>
+      <c r="I49">
+        <v>2482.150225963966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50">
-        <v>0.29372165785196308</v>
+        <v>73.146587118241825</v>
       </c>
       <c r="D50">
-        <v>0.69068412194545359</v>
+        <v>0.37137176576581782</v>
       </c>
       <c r="E50">
-        <v>-149.5680655757117</v>
+        <v>-93.087131915450044</v>
       </c>
       <c r="F50">
-        <v>2716.9781795951631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.609228623583</v>
+      </c>
+      <c r="G50">
+        <v>-72.862340204923953</v>
+      </c>
+      <c r="H50">
+        <v>10535.58160225252</v>
+      </c>
+      <c r="I50">
+        <v>1989.203747199231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>6.0367530462973093E-2</v>
+        <v>2.8144985915629248</v>
       </c>
       <c r="D51">
-        <v>0.92333290969579018</v>
+        <v>0.49245285166726849</v>
       </c>
       <c r="E51">
-        <v>-128.12805893577581</v>
+        <v>-71.557181687790674</v>
       </c>
       <c r="F51">
-        <v>2709.4072787980849</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.7170940716951</v>
+      </c>
+      <c r="G51">
+        <v>-83.481700826516899</v>
+      </c>
+      <c r="H51">
+        <v>630.13378339078588</v>
+      </c>
+      <c r="I51">
+        <v>-1042.600588255787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>0.36630782222437408</v>
+        <v>145.06688505304851</v>
       </c>
       <c r="D52">
-        <v>0.62783752216873934</v>
+        <v>0.38263352000367679</v>
       </c>
       <c r="E52">
-        <v>-146.23937444212689</v>
+        <v>-98.713262729980329</v>
       </c>
       <c r="F52">
-        <v>2718.0659691440051</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.3806663513901</v>
+      </c>
+      <c r="G52">
+        <v>-144.58239712666219</v>
+      </c>
+      <c r="H52">
+        <v>9614.1950912427492</v>
+      </c>
+      <c r="I52">
+        <v>2416.212714822499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>0.27215450045746042</v>
+        <v>281.38927906805532</v>
       </c>
       <c r="D53">
-        <v>0.72126352475887312</v>
+        <v>0.49767918013991858</v>
       </c>
       <c r="E53">
-        <v>-170.7144142496247</v>
+        <v>-121.5020515836065</v>
       </c>
       <c r="F53">
-        <v>2720.2090595640129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2688.311970898144</v>
+      </c>
+      <c r="G53">
+        <v>-280.97892308113251</v>
+      </c>
+      <c r="H53">
+        <v>8623.8962741024097</v>
+      </c>
+      <c r="I53">
+        <v>2551.035549232739</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54">
-        <v>0.23236944515269101</v>
+        <v>226.75200240645631</v>
       </c>
       <c r="D54">
-        <v>0.75325865093533817</v>
+        <v>0.45697494324679572</v>
       </c>
       <c r="E54">
-        <v>140.20904859424411</v>
+        <v>91.703006418890894</v>
       </c>
       <c r="F54">
-        <v>2710.714589748613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2690.1047109198162</v>
+      </c>
+      <c r="G54">
+        <v>-226.41638301477889</v>
+      </c>
+      <c r="H54">
+        <v>13920.781790965169</v>
+      </c>
+      <c r="I54">
+        <v>2284.4046697609351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C55">
-        <v>0.24731082684492031</v>
+        <v>1.9231306622461</v>
       </c>
       <c r="D55">
-        <v>0.73565472634099427</v>
+        <v>0.34953460987000812</v>
       </c>
       <c r="E55">
-        <v>-146.43687103848461</v>
+        <v>-77.576412089257431</v>
       </c>
       <c r="F55">
-        <v>2709.6672120710791</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2687.34238018409</v>
+      </c>
+      <c r="G55">
+        <v>-115.108353760505</v>
+      </c>
+      <c r="H55">
+        <v>288.05134249251608</v>
+      </c>
+      <c r="I55">
+        <v>-23.292717072338132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>0.36599721574636612</v>
+        <v>162.92045605030799</v>
       </c>
       <c r="D56">
-        <v>0.63624491971037145</v>
+        <v>0.41914624063201039</v>
       </c>
       <c r="E56">
-        <v>160.99389366025341</v>
+        <v>113.9199209332902</v>
       </c>
       <c r="F56">
-        <v>2719.6478812722712</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2691.4469418410249</v>
+      </c>
+      <c r="G56">
+        <v>-162.42502868094201</v>
+      </c>
+      <c r="H56">
+        <v>7925.657011890079</v>
+      </c>
+      <c r="I56">
+        <v>2518.4931540363991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57">
-        <v>0.15421593402439771</v>
+        <v>37.529965801435672</v>
       </c>
       <c r="D57">
-        <v>0.81033322923519657</v>
+        <v>0.53187211283866587</v>
       </c>
       <c r="E57">
-        <v>109.7835877872448</v>
+        <v>-70.495521949234444</v>
       </c>
       <c r="F57">
-        <v>2703.6410425019021</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2689.533540078884</v>
+      </c>
+      <c r="G57">
+        <v>-37.842045891134987</v>
+      </c>
+      <c r="H57">
+        <v>10921.0695298714</v>
+      </c>
+      <c r="I57">
+        <v>1127.786235001093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C58">
-        <v>0.27215450045746042</v>
+        <v>281.38927906805532</v>
       </c>
       <c r="D58">
-        <v>0.72126352475887312</v>
+        <v>0.49767918013991858</v>
       </c>
       <c r="E58">
-        <v>-170.7144142496247</v>
+        <v>-121.5020515836065</v>
       </c>
       <c r="F58">
-        <v>2720.2090595640129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2688.311970898144</v>
+      </c>
+      <c r="G58">
+        <v>-280.97892308113251</v>
+      </c>
+      <c r="H58">
+        <v>8623.8962741024097</v>
+      </c>
+      <c r="I58">
+        <v>2551.035549232739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>0.27410356242131961</v>
+        <v>23.121501307096519</v>
       </c>
       <c r="D59">
-        <v>0.71007898823578353</v>
+        <v>0.43496294372652022</v>
       </c>
       <c r="E59">
-        <v>-126.7830899865035</v>
+        <v>-80.076959653329766</v>
       </c>
       <c r="F59">
-        <v>2703.44927777774</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2686.801697995324</v>
+      </c>
+      <c r="G59">
+        <v>-23.325429342797701</v>
+      </c>
+      <c r="H59">
+        <v>9889.8768060905786</v>
+      </c>
+      <c r="I59">
+        <v>871.33381324492814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60">
-        <v>-7.3380117708815737E-2</v>
+        <v>0.47205644044906048</v>
       </c>
       <c r="D60">
-        <v>1.016715208161008</v>
+        <v>0.590329598090098</v>
       </c>
       <c r="E60">
-        <v>94.597222015233527</v>
+        <v>50.213338691342308</v>
       </c>
       <c r="F60">
-        <v>2701.669466165195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2694.546224836125</v>
+      </c>
+      <c r="G60">
+        <v>-0.384839952824715</v>
+      </c>
+      <c r="H60">
+        <v>89.12552535676403</v>
+      </c>
+      <c r="I60">
+        <v>2514.9816461896021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>0.1603066286702062</v>
+        <v>0.74371869292911552</v>
       </c>
       <c r="D61">
-        <v>0.83229848299841069</v>
+        <v>0.34990192053256503</v>
       </c>
       <c r="E61">
-        <v>143.96324459940999</v>
+        <v>-82.271043446786337</v>
       </c>
       <c r="F61">
-        <v>2711.1954011372891</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2693.2158285902842</v>
+      </c>
+      <c r="G61">
+        <v>-0.33835961054382069</v>
+      </c>
+      <c r="H61">
+        <v>115.356996497648</v>
+      </c>
+      <c r="I61">
+        <v>2516.6620087542228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C62">
-        <v>0.40273174651668148</v>
+        <v>187.8448328574122</v>
       </c>
       <c r="D62">
-        <v>0.59392193586096031</v>
+        <v>0.41432346077743559</v>
       </c>
       <c r="E62">
-        <v>-175.09601459632</v>
+        <v>-131.69220449246049</v>
       </c>
       <c r="F62">
-        <v>2724.7202800867371</v>
+        <v>2694.1890701248062</v>
+      </c>
+      <c r="G62">
+        <v>-187.3373599606513</v>
+      </c>
+      <c r="H62">
+        <v>8470.9622376140942</v>
+      </c>
+      <c r="I62">
+        <v>2539.776208584135</v>
       </c>
     </row>
   </sheetData>
